--- a/ManuelTestCaseCalismasi/ManuelTestCaseCalismasi.xlsx
+++ b/ManuelTestCaseCalismasi/ManuelTestCaseCalismasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSG\Documents\GitHub\HepsiburadaCaseStudy\ManuelTestCaseCalismasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7D68F7-09A2-44E6-8C34-A2AC43359945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC143E27-4DE7-426B-ABE6-42AA081FD94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3CAAF44-01EA-4DCF-ABD9-2527AAADAD27}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -53,59 +53,16 @@
     <t>Test Pass/Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden puan verilir.
-5 - Özellikleri değerlendirin bölümünü Daha Sonra butonuna tıklanarak geçilir.
-6 - Ürün hakkındaki düşünceleriniz bölümü doldurulur.
-7 - Değerlendir butonuna tıklanır. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden puan verilir.
-5 - Özellikleri değerlendirin bölümünü Daha Sonra butonuna tıklanarak geçilir.
-6 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
-7 - Değerlendir butonuna tıklanır. </t>
-  </si>
-  <si>
     <t>Sadece Puanlama yapılarak Değerlendirme eklenir.</t>
   </si>
   <si>
     <t>Sadece Puanlama yapılarak eklenen Değerlendirme puanı güncellenir.</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden farklı bir puan verilir.
-5 - Özellikleri değerlendirin bölümünü Daha Sonra butonuna tıklanarak geçilir.
-6 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
-7 - Değerlendir butonuna tıklanır. </t>
-  </si>
-  <si>
     <t>Sadece Puanlama yapılarak eklenen Değerlendirme silinir.</t>
   </si>
   <si>
-    <t>1 - Hepsiburada.com'a gidilir.
-2 - Hesabım bölümünden Siparişlerime tıklanır.
-3 - Değerlendirmelerim sekmesine gidilir.
-4 - Değerlendirdiklerim sekmesine gidilir.
-5 - Yapılan Değerlendirmenin yanındaki üç noktaya tıklanır.</t>
-  </si>
-  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden farklı bir puan verilir.
-5 - Özellikleri değerlendirin bölümü doldurulur.
-6 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
-7 - Değerlendir butonuna tıklanır. </t>
   </si>
   <si>
     <t>Sadece Puanlama yapılarak eklenen Değerlendirme puanına Özellikleri Değerlendirin
@@ -115,23 +72,7 @@
     <t>Sadece Puanlama yapılarak eklenen Değerlendirmeye görsel eklenir.</t>
   </si>
   <si>
-    <t>1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden puan verilir.
-5 - Özellikleri değerlendirin bölümünü Daha Sonra butonuna tıklanarak geçilir.
-6 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
-7 - Ürüne ait görsel eklenir.
-8 - Değerlendir butonuna tıklanır.</t>
-  </si>
-  <si>
     <t>Onay bekleyen değerlendirme varken Değerlendirme eklenmeye çalışılır.</t>
-  </si>
-  <si>
-    <t>1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ve Değerlendirme yapılmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - "Bu ürün ile ilgili onay bekleyen değerlendirmeniz olduğu için şu an tekrar değerlendiremiyorsunuz." hatası ile karşılaşılır.</t>
   </si>
   <si>
     <t>"Bu ürün ile ilgili onay bekleyen değerlendirmeniz olduğu için şu an tekrar değerlendiremiyorsunuz." hatası ile karşılaşılır.</t>
@@ -141,75 +82,16 @@
  kısmında bir özellik doldurularak güncellenir.</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden farklı bir puan verilir.
-5 - Özellikleri değerlendirin bölümünde bir özellik doldurulur.
-6 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
-7 - Değerlendir butonuna tıklanır. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden farklı bir puan verilir.
-5 - Özellikleri değerlendirin bölümünde tüm özellikler doldurulur.
-6 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
-7 - Değerlendir butonuna tıklanır. </t>
-  </si>
-  <si>
     <t>Puanlama kısmı doldurulduktan sonra Özellikleri Değerlendirin kısmı Daha sonra butonuna tıklanarak 
 atlanır ve Ürün Hakkındaki düşünceleriniz kısmı doldurulur ve görsel eklenir.</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden puan verilir.
-5 - Özellikleri değerlendirin bölümünü Daha Sonra butonuna tıklanarak geçilir.
-6 - Ürün hakkındaki düşünceleriniz bölümü doldurulur.
-7 - Ürüne ait görsel eklenir.
-8 - Değerlendir butonuna tıklanır. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden puan verilir.
-5 - Özellikleri değerlendirin bölümü doldurulur.
-6 - Ürün hakkındaki düşünceleriniz bölümü doldurulur.
-7 - Ürüne ait görsel eklenir.
-8 - Değerlendir butonuna tıklanır. </t>
-  </si>
-  <si>
     <t>Puanlama kısmı doldurulduktan sonra Özellikleri Değerlendirin doldurulur ve Ürün Hakkındaki düşünceleriniz kısmı doldurulur ve görsel eklenir.</t>
   </si>
   <si>
     <t>Ürüne ait beş görsel eklenir.</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden puan verilir.
-5 - Özellikleri değerlendirin bölümü doldurulur.
-6 - Ürün hakkındaki düşünceleriniz bölümü doldurulur.
-7 - Ürüne ait beş görsel eklenir.
-8 - Değerlendir butonuna tıklanır. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.
-4 - Ürün Değerlendirin bölümünden puan verilir.
-5 - Özellikleri değerlendirin bölümü doldurulur.
-6 - Ürün hakkındaki düşünceleriniz bölümü doldurulur.
-7 - Ürüne ait görsel eklenir.
-8 - İsmim görünsün butonuna tıklanır.
-8 - Değerlendir butonuna tıklanır. </t>
-  </si>
-  <si>
     <t>İsmim görünsün aktifken Değerlendirme eklenir.</t>
   </si>
   <si>
@@ -226,11 +108,6 @@
   </si>
   <si>
     <t>Değerlendirmelerim sayfasında değerlendirme inceleniyor görülür.</t>
-  </si>
-  <si>
-    <t>1 - Hepsiburada.com'a gidilir.
-2 - Önceden satın alınmış ürüne tıklanır.
-3 - Ürün sayfasında Değerlendir butonuna tıklanır.</t>
   </si>
   <si>
     <t>Açılan Değerlendirme bölümünün sayfanın diğer bölümüne tıklanınca yada 'Esc' tuşuna basınca kapanması.</t>
@@ -253,13 +130,171 @@
   <si>
     <t>Değerlendirmelerim sayfasında yeni değerlendirme bir önceki değerlendirme arasında 
 belirli bir süre (yaklaşık 5-10 dakika) geçtikten sonra yapılabilir ve güncellenir.</t>
+  </si>
+  <si>
+    <t>1 - Hepsiburada.com'a gidilir.
+2 - Siparişi tamamlanan bir hesaba giriş yapılır.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden puan verilir.
+6 - Özellikleri değerlendirin bölümünü Daha Sonra butonuna tıklanarak geçilir.
+7 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
+8 - Değerlendir butonuna tıklanır. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden farklı bir puan verilir.
+6 - Özellikleri değerlendirin bölümünü Daha Sonra butonuna tıklanarak geçilir.
+7 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
+8 - Değerlendir butonuna tıklanır. </t>
+  </si>
+  <si>
+    <t>3 - Hesabım bölümünden Siparişlerime tıklanır.
+4 - Değerlendirmelerim sekmesine gidilir.
+5 - Değerlendirdiklerim sekmesine gidilir.
+6 - Yapılan Değerlendirmenin yanındaki üç noktaya tıklanır.</t>
+  </si>
+  <si>
+    <t>3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden puan verilir.
+6 - Özellikleri değerlendirin bölümünü Daha Sonra butonuna tıklanarak geçilir.
+7 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
+8 - Ürüne ait görsel eklenir.
+9 - Değerlendir butonuna tıklanır.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden farklı bir puan verilir.
+6 - Özellikleri değerlendirin bölümü doldurulur.
+7 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
+8 - Değerlendir butonuna tıklanır. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden farklı bir puan verilir.
+6 - Özellikleri değerlendirin bölümünde bir özellik doldurulur.
+7 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
+8 - Değerlendir butonuna tıklanır. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden farklı bir puan verilir.
+6 - Özellikleri değerlendirin bölümünde tüm özellikler doldurulur.
+7 - Ürün hakkındaki düşünceleriniz bölümü boş bırakılır.
+8 - Değerlendir butonuna tıklanır. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden puan verilir.
+6 - Özellikleri değerlendirin bölümünü Daha Sonra butonuna tıklanarak geçilir.
+7 - Ürün hakkındaki düşünceleriniz bölümü doldurulur.
+8 - Değerlendir butonuna tıklanır. </t>
+  </si>
+  <si>
+    <t>3 - Önceden satın alınmış ve Değerlendirme yapılmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - "Bu ürün ile ilgili onay bekleyen değerlendirmeniz olduğu için şu an tekrar değerlendiremiyorsunuz." hatası ile karşılaşılır.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden puan verilir.
+6 - Özellikleri değerlendirin bölümünü Daha Sonra butonuna tıklanarak geçilir.
+7 - Ürün hakkındaki düşünceleriniz bölümü doldurulur.
+8 - Ürüne ait görsel eklenir.
+9 - Değerlendir butonuna tıklanır. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden puan verilir.
+6 - Özellikleri değerlendirin bölümü doldurulur.
+7 - Ürün hakkındaki düşünceleriniz bölümü doldurulur.
+8 - Ürüne ait görsel eklenir.
+9 - Değerlendir butonuna tıklanır. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden puan verilir.
+6 - Özellikleri değerlendirin bölümü doldurulur.
+7 - Ürün hakkındaki düşünceleriniz bölümü doldurulur.
+8 - Ürüne ait beş görsel eklenir.
+9 - Değerlendir butonuna tıklanır. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.
+5 - Ürün Değerlendirin bölümünden puan verilir.
+6 - Özellikleri değerlendirin bölümü doldurulur.
+7 - Ürün hakkındaki düşünceleriniz bölümü doldurulur.
+8 - Ürüne ait görsel eklenir.
+9 - İsmim görünsün butonuna tıklanır.
+10 - Değerlendir butonuna tıklanır. </t>
+  </si>
+  <si>
+    <t>3 - Önceden satın alınmış ürüne tıklanır.
+4 - Ürün sayfasında Değerlendir butonuna tıklanır.</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+  </si>
+  <si>
+    <t>TC-1</t>
+  </si>
+  <si>
+    <t>TC-2</t>
+  </si>
+  <si>
+    <t>TC-3</t>
+  </si>
+  <si>
+    <t>TC-4</t>
+  </si>
+  <si>
+    <t>TC-5</t>
+  </si>
+  <si>
+    <t>TC-6</t>
+  </si>
+  <si>
+    <t>TC-7</t>
+  </si>
+  <si>
+    <t>TC-8</t>
+  </si>
+  <si>
+    <t>TC-9</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>TC-12</t>
+  </si>
+  <si>
+    <t>TC-13</t>
+  </si>
+  <si>
+    <t>TC-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +317,13 @@
       <name val="Arial Nova"/>
       <family val="2"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -653,23 +695,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6683C819-04FE-4749-AD58-F46102A67D3E}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="84.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="115.85546875" customWidth="1"/>
-    <col min="5" max="5" width="99.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="115.85546875" customWidth="1"/>
+    <col min="6" max="6" width="99.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,299 +720,345 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
+    <row r="2" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="252" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="252" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>